--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1003031.624007361</v>
+        <v>-1005712.487070769</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>177.3610457021524</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>298.0158732363275</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>116.9363165185065</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110112</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.61265511868606</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.66297864051417</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>313.3562182955215</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>270.0182056140462</v>
+        <v>243.494984789696</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>105.859029943847</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>234.1055905923155</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>179.7031752305077</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>49.29539758182898</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>212.560296663224</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>67.63081821229034</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>72.60410776434701</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>4.444394634328862</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>84.87800743369236</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>189.1951998373644</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652662</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.289389295559</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="C2" t="n">
-        <v>1096.326872355147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="D2" t="n">
-        <v>738.0611737483964</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E2" t="n">
-        <v>352.2729211501522</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F2" t="n">
-        <v>352.2729211501522</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2444.221836967321</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2235.476195573145</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1981.895134837325</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1650.832247493754</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1298.06359222364</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>924.5978339625601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295559</v>
+        <v>534.4585019867484</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057905</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143497</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>1387.807075285521</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>1218.870892357614</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>1068.754252945278</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1182.509370923527</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>893.0922008865665</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>665.1026499885492</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.1026499885492</v>
+        <v>1569.455540115761</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.46096678957</v>
+        <v>1214.090290083873</v>
       </c>
       <c r="C5" t="n">
-        <v>882.4984498491588</v>
+        <v>845.1277731434611</v>
       </c>
       <c r="D5" t="n">
-        <v>882.4984498491588</v>
+        <v>845.1277731434611</v>
       </c>
       <c r="E5" t="n">
-        <v>882.4984498491588</v>
+        <v>845.1277731434611</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>434.1418683538536</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4604,13 +4604,13 @@
         <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1604.229622059685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.46096678957</v>
+        <v>1214.090290083873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,34 +4635,34 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458217</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105042</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.7172435647353</v>
+        <v>687.0249717364609</v>
       </c>
       <c r="C7" t="n">
-        <v>620.7172435647353</v>
+        <v>518.088788808554</v>
       </c>
       <c r="D7" t="n">
-        <v>620.7172435647353</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>841.5098227082655</v>
+        <v>1390.491589983895</v>
       </c>
       <c r="V7" t="n">
-        <v>841.5098227082655</v>
+        <v>1135.807101778008</v>
       </c>
       <c r="W7" t="n">
-        <v>841.5098227082655</v>
+        <v>1135.807101778008</v>
       </c>
       <c r="X7" t="n">
-        <v>841.5098227082655</v>
+        <v>907.817550879991</v>
       </c>
       <c r="Y7" t="n">
-        <v>620.7172435647353</v>
+        <v>687.0249717364609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.424186004858</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>640.2534990824188</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532449</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1992.424186004858</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1992.424186004858</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1992.424186004858</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.424186004858</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.424186004858</v>
+        <v>1026.041751680663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.9512097489097</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="C10" t="n">
-        <v>305.0150268210028</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210028</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386097</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1454.927761255802</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1454.927761255802</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1165.80942375964</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1165.80942375964</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W10" t="n">
-        <v>876.3922537226796</v>
+        <v>1032.756146653317</v>
       </c>
       <c r="X10" t="n">
-        <v>876.3922537226796</v>
+        <v>804.7665957552998</v>
       </c>
       <c r="Y10" t="n">
-        <v>655.5996745791495</v>
+        <v>804.7665957552998</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349515</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.917939501689</v>
+        <v>869.9745311434725</v>
       </c>
       <c r="C16" t="n">
-        <v>920.9817565737826</v>
+        <v>701.0383482155656</v>
       </c>
       <c r="D16" t="n">
-        <v>770.8651171614468</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>622.9520235790537</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>476.0620760811433</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>308.8659767960233</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>167.1541456382214</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235166</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.40512601526</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.358983475459</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.566404331929</v>
+        <v>1051.622995973712</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5729,58 +5729,58 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438167</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6139,46 +6139,46 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1491.508541327549</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6613,10 +6613,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384028</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,22 +6877,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,31 +7166,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,10 +7312,10 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.06226138996135e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417443</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>294.8344935184735</v>
+        <v>240.4465442417436</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>205.3727959613282</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>113.5318295366264</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.50461243733633</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.329716221310235</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462226</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>4.845153664064242</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.216875867721144e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.98465480592202</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>8.661728554218499</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>201.6449909028987</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>36.5144555516728</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943219</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="E2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="I2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="J2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
-      <c r="I2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="J2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="K2" t="n">
-        <v>201786.6499225016</v>
-      </c>
       <c r="L2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660712</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49700.31489448731</v>
+        <v>49700.31489448738</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26424,40 +26424,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707348</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707317</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707343</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707381</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980084</v>
       </c>
       <c r="M4" t="n">
+        <v>14888.28375980085</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.2837598009</v>
       </c>
-      <c r="N4" t="n">
-        <v>14888.28375980084</v>
-      </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1088137.73001593</v>
+        <v>-1088497.813031648</v>
       </c>
       <c r="C6" t="n">
-        <v>-19587.05680539887</v>
+        <v>-19587.05680539881</v>
       </c>
       <c r="D6" t="n">
-        <v>-19587.0568053989</v>
+        <v>-19587.05680539881</v>
       </c>
       <c r="E6" t="n">
-        <v>-413718.7460226594</v>
+        <v>-413753.4839480945</v>
       </c>
       <c r="F6" t="n">
-        <v>93766.695601887</v>
+        <v>93731.95767645145</v>
       </c>
       <c r="G6" t="n">
-        <v>93766.69560188701</v>
+        <v>93731.95767645133</v>
       </c>
       <c r="H6" t="n">
-        <v>93766.69560188704</v>
+        <v>93731.95767645138</v>
       </c>
       <c r="I6" t="n">
-        <v>93766.69560188698</v>
+        <v>93731.95767645141</v>
       </c>
       <c r="J6" t="n">
-        <v>-73838.48220809517</v>
+        <v>-73873.2201335312</v>
       </c>
       <c r="K6" t="n">
-        <v>93766.69560188704</v>
+        <v>93731.95767645136</v>
       </c>
       <c r="L6" t="n">
-        <v>67780.32485872292</v>
+        <v>67780.32485872315</v>
       </c>
       <c r="M6" t="n">
-        <v>-45399.25087657206</v>
+        <v>-45399.250876572</v>
       </c>
       <c r="N6" t="n">
-        <v>87208.04285235493</v>
+        <v>87208.04285235504</v>
       </c>
       <c r="O6" t="n">
-        <v>87208.04285235473</v>
+        <v>87208.0428523546</v>
       </c>
       <c r="P6" t="n">
         <v>87208.0428523547</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241352</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.20530023513417</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>6.515898880287835</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.73584717546805</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27591,10 +27591,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>190.5249882051419</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.2130671011973</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>98.19148447743248</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>16.20894850715439</v>
+        <v>42.73216933150462</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>301.0170157978645</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>16.93965953614656</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.95928513122979</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>237.227600754762</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31534,7 +31534,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31604,22 +31604,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31686,10 +31686,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31704,13 +31704,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>538.1718564803244</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330940008</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681193</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>592.5148541563236</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35182,7 +35182,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313202</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,10 +35261,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35337,7 +35337,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35346,7 +35346,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>425.4542490066519</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191325</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>406.8301443969911</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
